--- a/data/trans_dic/P80_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P80_R-Dificultad-trans_dic.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.06379629914652074</v>
+        <v>0.06379629914652073</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.03281155198073072</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.04656495579157742</v>
+        <v>0.04656495579157741</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.04105648599300109</v>
+        <v>0.04290927103342448</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02191194297836202</v>
+        <v>0.02124280080719413</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03505999174378049</v>
+        <v>0.03527673785992528</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.09366843610868016</v>
+        <v>0.09821468577940107</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.04918995209910045</v>
+        <v>0.04822129858293007</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.06212215727946514</v>
+        <v>0.06210321008141139</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01042273492568288</v>
+        <v>0.01013728412212944</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.007123617478191272</v>
+        <v>0.007682966304825404</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01034466473589549</v>
+        <v>0.01055599254668952</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03177858100177203</v>
+        <v>0.03297090377694956</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02350999022605598</v>
+        <v>0.02451090977109151</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02336217293115311</v>
+        <v>0.02353741029940862</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>0.00839881777423843</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.008045321574973435</v>
+        <v>0.008045321574973433</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.002660609316316056</v>
+        <v>0.002927087352679988</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.004104173964279837</v>
+        <v>0.004571261394271762</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.00459733475127408</v>
+        <v>0.004804836545570386</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01807831979412227</v>
+        <v>0.01976562413446654</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01549968766403415</v>
+        <v>0.01568602627340554</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01378873486160003</v>
+        <v>0.01396606457299645</v>
       </c>
     </row>
     <row r="13">
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.02174643459916775</v>
+        <v>0.02174643459916774</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.01231119768375563</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01212270243291758</v>
+        <v>0.01216466182530475</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.006629771823425003</v>
+        <v>0.00659919352477196</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01107241580957421</v>
+        <v>0.0112558716877026</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03719774185897144</v>
+        <v>0.03673477228739057</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02249988103609199</v>
+        <v>0.02005911931141281</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.0257541962480299</v>
+        <v>0.02610542206383371</v>
       </c>
     </row>
     <row r="16">
@@ -787,7 +787,7 @@
         <v>0.02273196372547161</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.01494454548107839</v>
+        <v>0.01494454548107838</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.01872404923075533</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01757796452706469</v>
+        <v>0.01726278742231047</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01143025283530115</v>
+        <v>0.01142008735881251</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01539888893691819</v>
+        <v>0.01550619975992158</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02960331314031457</v>
+        <v>0.02928078973787271</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.01948397872823092</v>
+        <v>0.0191779136566957</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02278978384752839</v>
+        <v>0.02253127443153656</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>20406</v>
+        <v>21327</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>13645</v>
+        <v>13228</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>39257</v>
+        <v>39500</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>46555</v>
+        <v>48814</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>30631</v>
+        <v>30027</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>69559</v>
+        <v>69538</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>10007</v>
+        <v>9733</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>7935</v>
+        <v>8558</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>21455</v>
+        <v>21894</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>30512</v>
+        <v>31657</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>26188</v>
+        <v>27303</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>48454</v>
+        <v>48818</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>2784</v>
+        <v>3063</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>4293</v>
+        <v>4781</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>9620</v>
+        <v>10054</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>18919</v>
+        <v>20684</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>16212</v>
+        <v>16407</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>28852</v>
+        <v>29223</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>11817</v>
+        <v>11858</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>6007</v>
+        <v>5979</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>20826</v>
+        <v>21171</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>36261</v>
+        <v>35809</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>20387</v>
+        <v>18175</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>48441</v>
+        <v>49102</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>61144</v>
+        <v>60048</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>42162</v>
+        <v>42125</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>110365</v>
+        <v>111134</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>102973</v>
+        <v>101851</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>71870</v>
+        <v>70741</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>163337</v>
+        <v>161484</v>
       </c>
     </row>
     <row r="24">
